--- a/storage/excels/Interactions_report.xlsx
+++ b/storage/excels/Interactions_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Client</t>
   </si>
@@ -32,28 +32,19 @@
     <t>User</t>
   </si>
   <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>30th November 2017</t>
+  </si>
+  <si>
+    <t>This is another interaction</t>
+  </si>
+  <si>
     <t>William Kamau</t>
-  </si>
-  <si>
-    <t>Call</t>
-  </si>
-  <si>
-    <t>31st October 2017</t>
-  </si>
-  <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.</t>
-  </si>
-  <si>
-    <t>adam adam</t>
-  </si>
-  <si>
-    <t>Meeting</t>
-  </si>
-  <si>
-    <t>1st November 2017</t>
-  </si>
-  <si>
-    <t>something</t>
   </si>
 </sst>
 </file>
@@ -411,19 +402,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2.285156" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="21.708984" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="146.107178" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="32.991943" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="16.424561" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -458,31 +449,11 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/storage/excels/Interactions_report.xlsx
+++ b/storage/excels/Interactions_report.xlsx
@@ -32,16 +32,16 @@
     <t>User</t>
   </si>
   <si>
-    <t>Organization</t>
-  </si>
-  <si>
-    <t>Meeting</t>
-  </si>
-  <si>
-    <t>30th November 2017</t>
-  </si>
-  <si>
-    <t>This is another interaction</t>
+    <t>Big Big</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>6th December 2017</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
   <si>
     <t>William Kamau</t>
@@ -411,10 +411,10 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2.285156" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9.283447000000001" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="21.708984" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="32.991943" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.997559000000001" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="16.424561" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
